--- a/tests/Test_plates/Test_plate_2_repeat_1.xlsx
+++ b/tests/Test_plates/Test_plate_2_repeat_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ks17361/Lab_work_Dek_Woolfson/BADASS/sensing_array_paper_2019/tests/Test_plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281048F3-6DC1-4442-94F9-A859229FACF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F585A213-C8AD-914A-9BE8-704A24BCE767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="1700" windowWidth="26040" windowHeight="13740" xr2:uid="{A57ED5CA-178C-274D-9302-EC541B909FEF}"/>
   </bookViews>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378F83D9-DB82-C747-8614-DE60D98C1FE0}">
   <dimension ref="A3:Y77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55:I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
